--- a/va_facility_data_2025-02-20/Lake Jackson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lake%20Jackson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lake Jackson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lake%20Jackson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8ad8b58724bc4e83a712964b522a7b15"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re3f3708458db4afc8eee722e8f5d530d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1f3136f6201f440786a8fc1a78f020c3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rba3f32f640f94646ba44e518130117cb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcf87af55364e4fb180f299817491e731"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R51e9282dff4b496ebf2482e3473f4ad9"/>
   </x:sheets>
 </x:workbook>
 </file>
